--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BraxtonWright\Desktop\Auto Backup Script\Jobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BraxtonWright\Desktop\Robocopy-Backup-Utility\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Source</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>FileExtension</t>
+  </si>
+  <si>
+    <t>File name\Extensions seperated by a '/' for every entry</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,6 +378,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source</t>
   </si>
@@ -38,7 +38,37 @@
     <t>FileExtension</t>
   </si>
   <si>
-    <t>File name\Extensions seperated by a '/' for every entry</t>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Here are some examples all you have to do is to remove the '' around the text</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '*.txt ' will get all files that end in '.txt'</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'name* ' will get all files that start with 'name'</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '*name* ' will get all files that contains 'name'</t>
+  </si>
+  <si>
+    <t>DELETE THIS ROW WHEN YOU SAVE:  The default process is backup, so when you run a backup, it will read from the "Source" column and put it into the "Destination" column.</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'name*.txt' will get all files that start with 'name' and ends in '.txt'</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  As shown by the last example you can combine them to make complex patterns such as the following</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'start * middle * end.txt' will get all files that start with 'start ', and somewhere in the middle has ' middle ', and ends with  ' end.txt'</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Using a pattern, with the * as any number of characters, you can fetch the desired files seperated by a '/' for every entry</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Need to change the examples because I had to return to the -match comparison operator and not the -like operator</t>
   </si>
 </sst>
 </file>
@@ -356,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -366,24 +396,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -35,50 +35,58 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FileExtension</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Here are some examples all you have to do is to remove the '' around the text</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '*.txt ' will get all files that end in '.txt'</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'name* ' will get all files that start with 'name'</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '*name* ' will get all files that contains 'name'</t>
-  </si>
-  <si>
     <t>DELETE THIS ROW WHEN YOU SAVE:  The default process is backup, so when you run a backup, it will read from the "Source" column and put it into the "Destination" column.</t>
   </si>
   <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'name*.txt' will get all files that start with 'name' and ends in '.txt'</t>
-  </si>
-  <si>
     <t>REMOVE\REPLACE ME WHEN YOU SAVE:  As shown by the last example you can combine them to make complex patterns such as the following</t>
   </si>
   <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'start * middle * end.txt' will get all files that start with 'start ', and somewhere in the middle has ' middle ', and ends with  ' end.txt'</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Using a pattern, with the * as any number of characters, you can fetch the desired files seperated by a '/' for every entry</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Need to change the examples because I had to return to the -match comparison operator and not the -like operator</t>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Here are some examples all you have to do is to remove the '' around the text.</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters.</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Using a regex pattern, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'text' will get all files that contains 'text' inside it's name.</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '^text' will get all files that start with 'text' inside it's name.  The ^ means at the start of the string.</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '.txt$' will get all files that end in '.txt' inside it's name.  The $ means the end of the string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '^text(?:\N)*.txt$' will get all files that start with 'text' with anything between the start and the end, even nothing, and ends with '.txt' </t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '^test (?:\N)*file(?:\N)* name\.txt$' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'</t>
+  </si>
+  <si>
+    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  A good place to test and learn about regex patterns can be found here</t>
+  </si>
+  <si>
+    <t>FileMatching</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,14 +400,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -410,61 +421,64 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>11</v>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Delete Me When Saving To CSV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Source</t>
   </si>
@@ -35,40 +36,46 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DELETE THIS ROW WHEN YOU SAVE:  The default process is backup, so when you run a backup, it will read from the "Source" column and put it into the "Destination" column.</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  As shown by the last example you can combine them to make complex patterns such as the following</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Here are some examples all you have to do is to remove the '' around the text.</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters.</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Using a regex pattern, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: 'text' will get all files that contains 'text' inside it's name.</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '^text' will get all files that start with 'text' inside it's name.  The ^ means at the start of the string.</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '.txt$' will get all files that end in '.txt' inside it's name.  The $ means the end of the string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '^text(?:\N)*.txt$' will get all files that start with 'text' with anything between the start and the end, even nothing, and ends with '.txt' </t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  Example: '^test (?:\N)*file(?:\N)* name\.txt$' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'</t>
-  </si>
-  <si>
-    <t>REMOVE\REPLACE ME WHEN YOU SAVE:  A good place to test and learn about regex patterns can be found here</t>
-  </si>
-  <si>
     <t>FileMatching</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The default process is backup, so when you run a backup, it will read from the "Source" column and put it into the "Destination" column.</t>
+  </si>
+  <si>
+    <t>FileMatching Field help</t>
+  </si>
+  <si>
+    <t>Using a regex pattern, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
+  </si>
+  <si>
+    <t>Here are some examples all you have to do is to remove the '' around the text.</t>
+  </si>
+  <si>
+    <t>Example: '.txt$' will get all files that end in '.txt' inside it's name.  The $ means the end of the string.</t>
+  </si>
+  <si>
+    <t>Example: '^text' will get all files that start with 'text' inside it's name.  The ^ means at the start of the string.</t>
+  </si>
+  <si>
+    <t>Example: 'text' will get all files that contains 'text' inside it's name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: '^text(?:\N)*.txt$' will get all files that start with 'text' with anything between the start and the end, even nothing, and ends with '.txt' </t>
+  </si>
+  <si>
+    <t>As shown by the last example you can combine them to make complex patterns such as the following</t>
+  </si>
+  <si>
+    <t>Example: '^test (?:\N)*file(?:\N)* name\.txt$' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'</t>
+  </si>
+  <si>
+    <t>A good place to learn and test regex patterns can be found here</t>
+  </si>
+  <si>
+    <t>Or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters.</t>
   </si>
 </sst>
 </file>
@@ -397,88 +404,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>13</v>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BraxtonWright\Desktop\Robocopy-Backup-Utility\Jobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BraxtonWright\Desktop\Auto-Backup-Utility\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Source</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>Or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters.</t>
+  </si>
+  <si>
+    <t>C:\Users\BraxtonWright\Desktop\Ark files</t>
+  </si>
+  <si>
+    <t>H:\my games\Steam\Game notes\Ark files</t>
+  </si>
+  <si>
+    <t>Ark notes</t>
+  </si>
+  <si>
+    <t>C:\Users\BraxtonWright\Desktop</t>
+  </si>
+  <si>
+    <t>Satisfactory notes</t>
+  </si>
+  <si>
+    <t>H:\my games\Steam\Game notes\Satisfactory files</t>
+  </si>
+  <si>
+    <t>^Satisfactory.txt$</t>
   </si>
 </sst>
 </file>
@@ -404,9 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -422,6 +445,31 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Source</t>
   </si>
@@ -45,65 +45,50 @@
     <t>The default process is backup, so when you run a backup, it will read from the "Source" column and put it into the "Destination" column.</t>
   </si>
   <si>
-    <t>FileMatching Field help</t>
-  </si>
-  <si>
-    <t>Using a regex pattern, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
-  </si>
-  <si>
     <t>Here are some examples all you have to do is to remove the '' around the text.</t>
   </si>
   <si>
-    <t>Example: '.txt$' will get all files that end in '.txt' inside it's name.  The $ means the end of the string.</t>
-  </si>
-  <si>
-    <t>Example: '^text' will get all files that start with 'text' inside it's name.  The ^ means at the start of the string.</t>
-  </si>
-  <si>
-    <t>Example: 'text' will get all files that contains 'text' inside it's name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example: '^text(?:\N)*.txt$' will get all files that start with 'text' with anything between the start and the end, even nothing, and ends with '.txt' </t>
-  </si>
-  <si>
-    <t>As shown by the last example you can combine them to make complex patterns such as the following</t>
-  </si>
-  <si>
-    <t>Example: '^test (?:\N)*file(?:\N)* name\.txt$' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'</t>
-  </si>
-  <si>
-    <t>A good place to learn and test regex patterns can be found here</t>
-  </si>
-  <si>
     <t>Or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters.</t>
   </si>
   <si>
-    <t>C:\Users\BraxtonWright\Desktop\Ark files</t>
-  </si>
-  <si>
-    <t>H:\my games\Steam\Game notes\Ark files</t>
-  </si>
-  <si>
-    <t>Ark notes</t>
-  </si>
-  <si>
-    <t>C:\Users\BraxtonWright\Desktop</t>
-  </si>
-  <si>
-    <t>Satisfactory notes</t>
-  </si>
-  <si>
-    <t>H:\my games\Steam\Game notes\Satisfactory files</t>
-  </si>
-  <si>
-    <t>^Satisfactory.txt$</t>
+    <t>Using combination of powershell wildcard characters, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
+  </si>
+  <si>
+    <t>As shown by the last example you can combine them to make complex patterns, such as the following</t>
+  </si>
+  <si>
+    <t>Example: 'test *file* name.txt' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'</t>
+  </si>
+  <si>
+    <t>Here you can learn about all the valid wildcards you can use to configure this file</t>
+  </si>
+  <si>
+    <t>FileMatching field help</t>
+  </si>
+  <si>
+    <t>Example: '*.txt' will get all files that end with '.txt'.</t>
+  </si>
+  <si>
+    <t>Example: 'text*' will get all files that start with 'text'.</t>
+  </si>
+  <si>
+    <t>Example: '*text*' will get all files that contains 'text'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: 'text*.txt' will get all files that start with 'text' with anything number of characters after it, even nothing, and ends with '.txt' </t>
+  </si>
+  <si>
+    <t>If you define a condition inside the FileMatching field, it will not remove any extra files in the source/destination folder if they are not in the other folder.  Even if they match one of the condition(s) you defined.</t>
+  </si>
+  <si>
+    <t>But if you don't define the FileMatching field, it will remove any extra files from the source/destination if they are not in the other folder.  I.E. It will make the folders mirror images of each other.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +100,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,9 +133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,11 +418,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -445,31 +436,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -480,9 +446,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -496,65 +462,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Source</t>
   </si>
@@ -48,21 +48,9 @@
     <t>Here are some examples all you have to do is to remove the '' around the text.</t>
   </si>
   <si>
-    <t>Or you can leave it blank to get ALL the contents of the folder.  This is case insensitive so you don't need to worry about capital letters.</t>
-  </si>
-  <si>
     <t>Using combination of powershell wildcard characters, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
   </si>
   <si>
-    <t>As shown by the last example you can combine them to make complex patterns, such as the following</t>
-  </si>
-  <si>
-    <t>Example: 'test *file* name.txt' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'</t>
-  </si>
-  <si>
-    <t>Here you can learn about all the valid wildcards you can use to configure this file</t>
-  </si>
-  <si>
     <t>FileMatching field help</t>
   </si>
   <si>
@@ -75,13 +63,58 @@
     <t>Example: '*text*' will get all files that contains 'text'.</t>
   </si>
   <si>
-    <t xml:space="preserve">Example: 'text*.txt' will get all files that start with 'text' with anything number of characters after it, even nothing, and ends with '.txt' </t>
-  </si>
-  <si>
-    <t>If you define a condition inside the FileMatching field, it will not remove any extra files in the source/destination folder if they are not in the other folder.  Even if they match one of the condition(s) you defined.</t>
-  </si>
-  <si>
     <t>But if you don't define the FileMatching field, it will remove any extra files from the source/destination if they are not in the other folder.  I.E. It will make the folders mirror images of each other.</t>
+  </si>
+  <si>
+    <t>If you define a condition inside the FileMatching field, it will not remove any extra files in the source/destination folder if they are not in the other folder.  Even if they match one of the condition(s) you defined.  This is case insensitive so you don't need to worry about capital letters.</t>
+  </si>
+  <si>
+    <t>1. The IPV4 address or the device name of the target machine.</t>
+  </si>
+  <si>
+    <t>Description field help</t>
+  </si>
+  <si>
+    <t>These fields are case insensitive, so you don't have to worry about capitalization of the path.  You only have to care about capilization if you want new folders to have capital letters in them.</t>
+  </si>
+  <si>
+    <t>Source/Destination fields help</t>
+  </si>
+  <si>
+    <t>If you choose to use the device's name, then the name of the device can't be more than 15 characters.  However if it is more than 15 characters, then truncate the name down to 15 characters and it will be accepted.</t>
+  </si>
+  <si>
+    <t>When you have these two things you can define the Source/Destination field by entering the following "\\&lt;IPV4 or device name&gt;\&lt;path from network share to desired folder&gt;".</t>
+  </si>
+  <si>
+    <t>Example: 'text*.txt' will get all files that start with 'text' with anything number of characters after it, even nothing, and ends with '.txt' .</t>
+  </si>
+  <si>
+    <t>As shown by the last example you can combine them to make complex patterns, such as the following.</t>
+  </si>
+  <si>
+    <t>Example: 'test *file* name.txt' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'.</t>
+  </si>
+  <si>
+    <t>Here you can learn about all the valid wildcards you can use to configure this file.</t>
+  </si>
+  <si>
+    <t>In either of these fields, you supply a path either a local drive or a remote share you wish to backup/restore to/from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you wish to define a remote connection, then you have to know two things.  </t>
+  </si>
+  <si>
+    <t>Example:  If I want to connect to a device named "MyPC" and I want to target the folder located here "NetworkShareFolder -&gt; subFolder".  I would then enter the following "\\MyPC\NetworkShareFolder\subFolder".</t>
+  </si>
+  <si>
+    <t>This field is what will be displayed when the line inside the job being executed.  So if you supply "Virtual machine files", it will say this string when it gets to this line inside the file when backing up or restoring the files.</t>
+  </si>
+  <si>
+    <t>2. The file structure from the network share to the desired folder inside the target machine so you can select the folder to backup/restore to/from.</t>
+  </si>
+  <si>
+    <t>If you want to test your network path, you can use the run terminal "Windows key + R" and paste your path into the terminal and it will take you there if the network share is available and the path is correctly formatted.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -446,90 +481,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId1" display="Here you can learn about all the valid wildcards you can use to configure this file"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="11550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,9 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -483,9 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Jobs/Template (save as a csv).xlsx
+++ b/Jobs/Template (save as a csv).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21920" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Source</t>
   </si>
@@ -36,85 +36,91 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The default process is backup, so when you run a backup, it will read from the "Source" column and put it into the "Destination" column.</t>
+  </si>
+  <si>
+    <t>Here are some examples all you have to do is to remove the '' around the text.</t>
+  </si>
+  <si>
+    <t>Using combination of powershell wildcard characters, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
+  </si>
+  <si>
+    <t>FileMatching field help</t>
+  </si>
+  <si>
+    <t>Example: '*.txt' will get all files that end with '.txt'.</t>
+  </si>
+  <si>
+    <t>Example: 'text*' will get all files that start with 'text'.</t>
+  </si>
+  <si>
+    <t>Example: '*text*' will get all files that contains 'text'.</t>
+  </si>
+  <si>
+    <t>But if you don't define the FileMatching field, it will remove any extra files from the source/destination if they are not in the other folder.  I.E. It will make the folders mirror images of each other.</t>
+  </si>
+  <si>
+    <t>If you define a condition inside the FileMatching field, it will not remove any extra files in the source/destination folder if they are not in the other folder.  Even if they match one of the condition(s) you defined.  This is case insensitive so you don't need to worry about capital letters.</t>
+  </si>
+  <si>
+    <t>1. The IPV4 address or the device name of the target machine.</t>
+  </si>
+  <si>
+    <t>Description field help</t>
+  </si>
+  <si>
+    <t>These fields are case insensitive, so you don't have to worry about capitalization of the path.  You only have to care about capilization if you want new folders to have capital letters in them.</t>
+  </si>
+  <si>
+    <t>Source/Destination fields help</t>
+  </si>
+  <si>
+    <t>If you choose to use the device's name, then the name of the device can't be more than 15 characters.  However if it is more than 15 characters, then truncate the name down to 15 characters and it will be accepted.</t>
+  </si>
+  <si>
+    <t>When you have these two things you can define the Source/Destination field by entering the following "\\&lt;IPV4 or device name&gt;\&lt;path from network share to desired folder&gt;".</t>
+  </si>
+  <si>
+    <t>Example: 'text*.txt' will get all files that start with 'text' with anything number of characters after it, even nothing, and ends with '.txt' .</t>
+  </si>
+  <si>
+    <t>As shown by the last example you can combine them to make complex patterns, such as the following.</t>
+  </si>
+  <si>
+    <t>Example: 'test *file* name.txt' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'.</t>
+  </si>
+  <si>
+    <t>Here you can learn about all the valid wildcards you can use to configure this file.</t>
+  </si>
+  <si>
+    <t>In either of these fields, you supply a path either a local drive or a remote share you wish to backup/restore to/from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you wish to define a remote connection, then you have to know two things.  </t>
+  </si>
+  <si>
+    <t>Example:  If I want to connect to a device named "MyPC" and I want to target the folder located here "NetworkShareFolder -&gt; subFolder".  I would then enter the following "\\MyPC\NetworkShareFolder\subFolder".</t>
+  </si>
+  <si>
+    <t>This field is what will be displayed when the line inside the job being executed.  So if you supply "Virtual machine files", it will say this string when it gets to this line inside the file when backing up or restoring the files.</t>
+  </si>
+  <si>
+    <t>2. The file structure from the network share to the desired folder inside the target machine so you can select the folder to backup/restore to/from.</t>
+  </si>
+  <si>
+    <t>If you want to test your network path, you can use the run terminal "Windows key + R" and paste your path into the terminal and it will take you there if the network share is available and the path is correctly formatted.</t>
+  </si>
+  <si>
     <t>FileMatching</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>The default process is backup, so when you run a backup, it will read from the "Source" column and put it into the "Destination" column.</t>
-  </si>
-  <si>
-    <t>Here are some examples all you have to do is to remove the '' around the text.</t>
-  </si>
-  <si>
-    <t>Using combination of powershell wildcard characters, you can fetch the desired files seperated by a '/' for every pattern/entry you want to match to.</t>
-  </si>
-  <si>
-    <t>FileMatching field help</t>
-  </si>
-  <si>
-    <t>Example: '*.txt' will get all files that end with '.txt'.</t>
-  </si>
-  <si>
-    <t>Example: 'text*' will get all files that start with 'text'.</t>
-  </si>
-  <si>
-    <t>Example: '*text*' will get all files that contains 'text'.</t>
-  </si>
-  <si>
-    <t>But if you don't define the FileMatching field, it will remove any extra files from the source/destination if they are not in the other folder.  I.E. It will make the folders mirror images of each other.</t>
-  </si>
-  <si>
-    <t>If you define a condition inside the FileMatching field, it will not remove any extra files in the source/destination folder if they are not in the other folder.  Even if they match one of the condition(s) you defined.  This is case insensitive so you don't need to worry about capital letters.</t>
-  </si>
-  <si>
-    <t>1. The IPV4 address or the device name of the target machine.</t>
-  </si>
-  <si>
-    <t>Description field help</t>
-  </si>
-  <si>
-    <t>These fields are case insensitive, so you don't have to worry about capitalization of the path.  You only have to care about capilization if you want new folders to have capital letters in them.</t>
-  </si>
-  <si>
-    <t>Source/Destination fields help</t>
-  </si>
-  <si>
-    <t>If you choose to use the device's name, then the name of the device can't be more than 15 characters.  However if it is more than 15 characters, then truncate the name down to 15 characters and it will be accepted.</t>
-  </si>
-  <si>
-    <t>When you have these two things you can define the Source/Destination field by entering the following "\\&lt;IPV4 or device name&gt;\&lt;path from network share to desired folder&gt;".</t>
-  </si>
-  <si>
-    <t>Example: 'text*.txt' will get all files that start with 'text' with anything number of characters after it, even nothing, and ends with '.txt' .</t>
-  </si>
-  <si>
-    <t>As shown by the last example you can combine them to make complex patterns, such as the following.</t>
-  </si>
-  <si>
-    <t>Example: 'test *file* name.txt' will get all files that start with 'start ', and somewhere in the middle has 'file', and ends with  ' name.txt'.</t>
-  </si>
-  <si>
-    <t>Here you can learn about all the valid wildcards you can use to configure this file.</t>
-  </si>
-  <si>
-    <t>In either of these fields, you supply a path either a local drive or a remote share you wish to backup/restore to/from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you wish to define a remote connection, then you have to know two things.  </t>
-  </si>
-  <si>
-    <t>Example:  If I want to connect to a device named "MyPC" and I want to target the folder located here "NetworkShareFolder -&gt; subFolder".  I would then enter the following "\\MyPC\NetworkShareFolder\subFolder".</t>
-  </si>
-  <si>
-    <t>This field is what will be displayed when the line inside the job being executed.  So if you supply "Virtual machine files", it will say this string when it gets to this line inside the file when backing up or restoring the files.</t>
-  </si>
-  <si>
-    <t>2. The file structure from the network share to the desired folder inside the target machine so you can select the folder to backup/restore to/from.</t>
-  </si>
-  <si>
-    <t>If you want to test your network path, you can use the run terminal "Windows key + R" and paste your path into the terminal and it will take you there if the network share is available and the path is correctly formatted.</t>
+    <t>ExcludedFiles</t>
+  </si>
+  <si>
+    <t>ExcludedDirectories</t>
   </si>
 </sst>
 </file>
@@ -451,13 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +474,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -483,134 +495,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
